--- a/styrrantan-effektiv.xlsx
+++ b/styrrantan-effektiv.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB804CF-946C-4081-99E1-0210FE25A454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0215C10-B9A7-4207-9CCC-22C97A7B39DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,11 +101,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -329,17 +334,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -379,11 +385,11 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C30" si="0">YEAR(A3)</f>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C66" si="0">YEAR(A3)</f>
         <v>2006</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D66" si="1">MONTH(A3)</f>
         <v>3</v>
       </c>
@@ -395,11 +401,11 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -411,11 +417,11 @@
       <c r="B5" s="2">
         <v>2.25</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -427,11 +433,11 @@
       <c r="B6" s="2">
         <v>2.5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -443,11 +449,11 @@
       <c r="B7" s="2">
         <v>2.75</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -459,11 +465,11 @@
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -475,11 +481,11 @@
       <c r="B9" s="2">
         <v>3.25</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -491,11 +497,11 @@
       <c r="B10" s="2">
         <v>3.25</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -507,11 +513,11 @@
       <c r="B11" s="2">
         <v>3.25</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -523,11 +529,11 @@
       <c r="B12" s="2">
         <v>3.5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -539,11 +545,11 @@
       <c r="B13" s="2">
         <v>3.75</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -555,11 +561,11 @@
       <c r="B14" s="2">
         <v>3.75</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -571,11 +577,11 @@
       <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -587,11 +593,11 @@
       <c r="B16" s="2">
         <v>4.25</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -603,11 +609,11 @@
       <c r="B17" s="2">
         <v>4.25</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -619,11 +625,11 @@
       <c r="B18" s="2">
         <v>4.5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -635,11 +641,11 @@
       <c r="B19" s="2">
         <v>4.75</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -651,11 +657,11 @@
       <c r="B20" s="2">
         <v>4.25</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -667,11 +673,11 @@
       <c r="B21" s="2">
         <v>3.75</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -683,11 +689,11 @@
       <c r="B22" s="2">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -699,11 +705,11 @@
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -715,11 +721,11 @@
       <c r="B24" s="2">
         <v>0.5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -731,11 +737,11 @@
       <c r="B25" s="2">
         <v>0.25</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -747,11 +753,11 @@
       <c r="B26" s="2">
         <v>0.25</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -763,11 +769,11 @@
       <c r="B27" s="2">
         <v>0.25</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -779,11 +785,11 @@
       <c r="B28" s="2">
         <v>0.25</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -795,11 +801,11 @@
       <c r="B29" s="2">
         <v>0.25</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -811,11 +817,11 @@
       <c r="B30" s="2">
         <v>0.25</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -827,11 +833,11 @@
       <c r="B31" s="2">
         <v>0.5</v>
       </c>
-      <c r="C31">
-        <f>YEAR(A31)</f>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -843,11 +849,11 @@
       <c r="B32" s="2">
         <v>0.75</v>
       </c>
-      <c r="C32">
-        <f t="shared" ref="C32:C90" si="2">YEAR(A32)</f>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -859,11 +865,11 @@
       <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="2"/>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -875,11 +881,11 @@
       <c r="B34" s="2">
         <v>1.25</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="2"/>
+      <c r="C34" s="5">
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -891,11 +897,11 @@
       <c r="B35" s="2">
         <v>1.5</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="2"/>
+      <c r="C35" s="5">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -907,11 +913,11 @@
       <c r="B36" s="2">
         <v>1.75</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="2"/>
+      <c r="C36" s="5">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -923,11 +929,11 @@
       <c r="B37" s="2">
         <v>2</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="2"/>
+      <c r="C37" s="5">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -939,11 +945,11 @@
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="2"/>
+      <c r="C38" s="5">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -955,11 +961,11 @@
       <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="2"/>
+      <c r="C39" s="5">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -971,11 +977,11 @@
       <c r="B40" s="2">
         <v>1.75</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="2"/>
+      <c r="C40" s="5">
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -987,11 +993,11 @@
       <c r="B41" s="2">
         <v>1.5</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="2"/>
+      <c r="C41" s="5">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1003,11 +1009,11 @@
       <c r="B42" s="2">
         <v>1.5</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="2"/>
+      <c r="C42" s="5">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1019,11 +1025,11 @@
       <c r="B43" s="2">
         <v>1.5</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="2"/>
+      <c r="C43" s="5">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1035,11 +1041,11 @@
       <c r="B44" s="2">
         <v>1.25</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="2"/>
+      <c r="C44" s="5">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1051,11 +1057,11 @@
       <c r="B45" s="2">
         <v>1.25</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="2"/>
+      <c r="C45" s="5">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1067,11 +1073,11 @@
       <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="2"/>
+      <c r="C46" s="5">
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1083,11 +1089,11 @@
       <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="2"/>
+      <c r="C47" s="5">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1099,11 +1105,11 @@
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="2"/>
+      <c r="C48" s="5">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1115,11 +1121,11 @@
       <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="2"/>
+      <c r="C49" s="5">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1131,11 +1137,11 @@
       <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="2"/>
+      <c r="C50" s="5">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1147,11 +1153,11 @@
       <c r="B51" s="2">
         <v>1</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="2"/>
+      <c r="C51" s="5">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1163,11 +1169,11 @@
       <c r="B52" s="2">
         <v>0.75</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="2"/>
+      <c r="C52" s="5">
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1179,11 +1185,11 @@
       <c r="B53" s="2">
         <v>0.75</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="2"/>
+      <c r="C53" s="5">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1195,11 +1201,11 @@
       <c r="B54" s="2">
         <v>0.75</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="2"/>
+      <c r="C54" s="5">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1211,11 +1217,11 @@
       <c r="B55" s="2">
         <v>0.25</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="2"/>
+      <c r="C55" s="5">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1227,11 +1233,11 @@
       <c r="B56" s="2">
         <v>0.25</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="2"/>
+      <c r="C56" s="5">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1243,11 +1249,11 @@
       <c r="B57" s="2">
         <v>0</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="2"/>
+      <c r="C57" s="5">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1259,11 +1265,11 @@
       <c r="B58" s="2">
         <v>0</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="2"/>
+      <c r="C58" s="5">
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1275,11 +1281,11 @@
       <c r="B59" s="2">
         <v>-0.1</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="2"/>
+      <c r="C59" s="5">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1291,11 +1297,11 @@
       <c r="B60" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="2"/>
+      <c r="C60" s="5">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1307,11 +1313,11 @@
       <c r="B61" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="2"/>
+      <c r="C61" s="5">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1323,11 +1329,11 @@
       <c r="B62" s="2">
         <v>-0.35</v>
       </c>
-      <c r="C62">
-        <f t="shared" si="2"/>
+      <c r="C62" s="5">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1339,11 +1345,11 @@
       <c r="B63" s="2">
         <v>-0.35</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="2"/>
+      <c r="C63" s="5">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1355,11 +1361,11 @@
       <c r="B64" s="2">
         <v>-0.35</v>
       </c>
-      <c r="C64">
-        <f t="shared" si="2"/>
+      <c r="C64" s="5">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -1371,11 +1377,11 @@
       <c r="B65" s="2">
         <v>-0.35</v>
       </c>
-      <c r="C65">
-        <f t="shared" si="2"/>
+      <c r="C65" s="5">
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1387,11 +1393,11 @@
       <c r="B66" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C66">
-        <f t="shared" si="2"/>
+      <c r="C66" s="5">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1403,12 +1409,12 @@
       <c r="B67" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C67">
-        <f t="shared" si="2"/>
+      <c r="C67" s="5">
+        <f t="shared" ref="C67:C116" si="2">YEAR(A67)</f>
         <v>2016</v>
       </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D116" si="3">MONTH(A67)</f>
+      <c r="D67" s="5">
+        <f t="shared" ref="D67:D118" si="3">MONTH(A67)</f>
         <v>4</v>
       </c>
     </row>
@@ -1419,11 +1425,11 @@
       <c r="B68" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="5">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -1435,11 +1441,11 @@
       <c r="B69" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="5">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -1451,11 +1457,11 @@
       <c r="B70" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="5">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="5">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -1467,11 +1473,11 @@
       <c r="B71" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="5">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -1483,11 +1489,11 @@
       <c r="B72" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -1499,11 +1505,11 @@
       <c r="B73" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="5">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -1515,11 +1521,11 @@
       <c r="B74" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="5">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -1531,11 +1537,11 @@
       <c r="B75" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="5">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -1547,11 +1553,11 @@
       <c r="B76" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="5">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="5">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -1563,11 +1569,11 @@
       <c r="B77" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1579,11 +1585,11 @@
       <c r="B78" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -1595,11 +1601,11 @@
       <c r="B79" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -1611,11 +1617,11 @@
       <c r="B80" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -1627,11 +1633,11 @@
       <c r="B81" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -1643,11 +1649,11 @@
       <c r="B82" s="2">
         <v>-0.5</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="5">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -1659,11 +1665,11 @@
       <c r="B83" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1675,11 +1681,11 @@
       <c r="B84" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -1691,11 +1697,11 @@
       <c r="B85" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -1707,11 +1713,11 @@
       <c r="B86" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -1723,11 +1729,11 @@
       <c r="B87" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -1739,11 +1745,11 @@
       <c r="B88" s="2">
         <v>-0.25</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="5">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -1755,11 +1761,11 @@
       <c r="B89" s="2">
         <v>0</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1771,11 +1777,11 @@
       <c r="B90" s="2">
         <v>0</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="5">
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -1787,11 +1793,11 @@
       <c r="B91" s="2">
         <v>0</v>
       </c>
-      <c r="C91">
-        <f>YEAR(A91)</f>
+      <c r="C91" s="5">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -1803,11 +1809,11 @@
       <c r="B92" s="2">
         <v>0</v>
       </c>
-      <c r="C92">
-        <f>YEAR(A92)</f>
+      <c r="C92" s="5">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -1819,11 +1825,11 @@
       <c r="B93" s="2">
         <v>0</v>
       </c>
-      <c r="C93">
-        <f t="shared" ref="C93:C116" si="4">YEAR(A93)</f>
+      <c r="C93" s="5">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -1835,11 +1841,11 @@
       <c r="B94" s="2">
         <v>0</v>
       </c>
-      <c r="C94">
-        <f t="shared" si="4"/>
+      <c r="C94" s="5">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -1851,11 +1857,11 @@
       <c r="B95" s="2">
         <v>0</v>
       </c>
-      <c r="C95">
-        <f t="shared" si="4"/>
+      <c r="C95" s="5">
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -1867,11 +1873,11 @@
       <c r="B96" s="2">
         <v>0</v>
       </c>
-      <c r="C96">
-        <f t="shared" si="4"/>
+      <c r="C96" s="5">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -1883,11 +1889,11 @@
       <c r="B97" s="2">
         <v>0</v>
       </c>
-      <c r="C97">
-        <f t="shared" si="4"/>
+      <c r="C97" s="5">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -1899,11 +1905,11 @@
       <c r="B98" s="2">
         <v>0</v>
       </c>
-      <c r="C98">
-        <f t="shared" si="4"/>
+      <c r="C98" s="5">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -1915,11 +1921,11 @@
       <c r="B99" s="2">
         <v>0</v>
       </c>
-      <c r="C99">
-        <f t="shared" si="4"/>
+      <c r="C99" s="5">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -1931,11 +1937,11 @@
       <c r="B100" s="2">
         <v>0</v>
       </c>
-      <c r="C100">
-        <f t="shared" si="4"/>
+      <c r="C100" s="5">
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -1947,11 +1953,11 @@
       <c r="B101" s="2">
         <v>0</v>
       </c>
-      <c r="C101">
-        <f t="shared" si="4"/>
+      <c r="C101" s="5">
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -1963,11 +1969,11 @@
       <c r="B102" s="2">
         <v>0.25</v>
       </c>
-      <c r="C102">
-        <f t="shared" si="4"/>
+      <c r="C102" s="5">
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -1979,11 +1985,11 @@
       <c r="B103" s="2">
         <v>0.75</v>
       </c>
-      <c r="C103">
-        <f t="shared" si="4"/>
+      <c r="C103" s="5">
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -1995,11 +2001,11 @@
       <c r="B104" s="2">
         <v>1.75</v>
       </c>
-      <c r="C104">
-        <f t="shared" si="4"/>
+      <c r="C104" s="5">
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -2011,11 +2017,11 @@
       <c r="B105" s="3">
         <v>2.5</v>
       </c>
-      <c r="C105">
-        <f t="shared" si="4"/>
+      <c r="C105" s="5">
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="5">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -2027,11 +2033,11 @@
       <c r="B106" s="2">
         <v>3</v>
       </c>
-      <c r="C106">
-        <f t="shared" si="4"/>
+      <c r="C106" s="5">
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2043,11 +2049,11 @@
       <c r="B107" s="2">
         <v>3.5</v>
       </c>
-      <c r="C107">
-        <f t="shared" si="4"/>
+      <c r="C107" s="5">
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -2059,11 +2065,11 @@
       <c r="B108" s="2">
         <v>3.75</v>
       </c>
-      <c r="C108">
-        <f t="shared" si="4"/>
+      <c r="C108" s="5">
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -2075,11 +2081,11 @@
       <c r="B109" s="2">
         <v>4</v>
       </c>
-      <c r="C109">
-        <f t="shared" si="4"/>
+      <c r="C109" s="5">
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -2091,11 +2097,11 @@
       <c r="B110" s="2">
         <v>4</v>
       </c>
-      <c r="C110">
-        <f t="shared" si="4"/>
+      <c r="C110" s="5">
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="5">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -2107,11 +2113,11 @@
       <c r="B111" s="2">
         <v>4</v>
       </c>
-      <c r="C111">
-        <f t="shared" si="4"/>
+      <c r="C111" s="5">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2123,11 +2129,11 @@
       <c r="B112" s="2">
         <v>4</v>
       </c>
-      <c r="C112">
-        <f t="shared" si="4"/>
+      <c r="C112" s="5">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="5">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -2139,11 +2145,11 @@
       <c r="B113" s="2">
         <v>3.75</v>
       </c>
-      <c r="C113">
-        <f t="shared" si="4"/>
+      <c r="C113" s="5">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -2155,11 +2161,11 @@
       <c r="B114" s="2">
         <v>3.75</v>
       </c>
-      <c r="C114">
-        <f t="shared" si="4"/>
+      <c r="C114" s="5">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -2171,11 +2177,11 @@
       <c r="B115" s="2">
         <v>3.5</v>
       </c>
-      <c r="C115">
-        <f t="shared" si="4"/>
+      <c r="C115" s="5">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -2187,13 +2193,45 @@
       <c r="B116" s="2">
         <v>3.25</v>
       </c>
-      <c r="C116">
-        <f t="shared" si="4"/>
+      <c r="C116" s="5">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>45609</v>
+      </c>
+      <c r="B117" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="C117" s="5">
+        <f>YEAR(A117)</f>
+        <v>2024</v>
+      </c>
+      <c r="D117" s="5">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
+        <v>45665</v>
+      </c>
+      <c r="B118" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C118" s="5">
+        <f t="shared" ref="C118" si="4">YEAR(A118)</f>
+        <v>2025</v>
+      </c>
+      <c r="D118" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
